--- a/data_mp3/ResultadosInforme/resultadosE3.xlsx
+++ b/data_mp3/ResultadosInforme/resultadosE3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Uniandes\Analisis de Imagenes\Miniproyecto3\Entrega3\Entrega3A_Miniproyecto3\data_mp3\ResultadosInforme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90830AD8-D826-4FDA-8797-6FD9646609B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A624BC79-3AC3-4861-9286-967AC1AF2237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4DC6DD30-A36C-42EB-83F6-AADA92D87694}"/>
+    <workbookView xWindow="30" yWindow="720" windowWidth="19170" windowHeight="10080" xr2:uid="{4DC6DD30-A36C-42EB-83F6-AADA92D87694}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="42">
   <si>
     <t>C</t>
   </si>
@@ -152,6 +152,15 @@
   </si>
   <si>
     <t>Descriptor mixto</t>
+  </si>
+  <si>
+    <t>kmeans</t>
+  </si>
+  <si>
+    <t>Métrica</t>
+  </si>
+  <si>
+    <t>VIEJA</t>
   </si>
 </sst>
 </file>
@@ -159,7 +168,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -245,23 +254,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -269,18 +287,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -296,6 +307,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>41054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F2082A-C32B-CC47-ADD6-67485EEF2666}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11906250" y="1047750"/>
+          <a:ext cx="4102100" cy="1907954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -595,198 +655,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7F3617-6FE6-4E91-B03E-E211BE50AAE4}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.90625" customWidth="1"/>
     <col min="2" max="2" width="19.6328125" customWidth="1"/>
-    <col min="3" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="N1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1000</v>
       </c>
       <c r="B3" s="2">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C3" s="2">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="D3" s="2">
-        <v>0.6</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="E3" s="2">
-        <v>0.68571428599999995</v>
+        <v>0.78736842105263105</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="2">
-        <v>0.85333333333333306</v>
+        <v>0.869999999999999</v>
       </c>
       <c r="I3" s="2">
-        <v>0.8</v>
+        <v>0.79999999999999905</v>
       </c>
       <c r="J3" s="2">
-        <v>0.825806451612903</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.83353293413173601</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="17">
+        <v>0.33</v>
+      </c>
+      <c r="P3" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>1</v>
+      </c>
+      <c r="R3" s="17">
+        <v>0</v>
+      </c>
+      <c r="S3" s="17">
+        <v>1</v>
+      </c>
+      <c r="T3" s="17">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1000</v>
       </c>
       <c r="B4" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="C4" s="2">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D4" s="2">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E4" s="2">
-        <v>0.84705882399999999</v>
+        <v>0.68571428571428505</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H4" s="2">
-        <v>0.88333333333333297</v>
+        <v>0.81666666666666599</v>
       </c>
       <c r="I4" s="2">
-        <v>0.86666666666666603</v>
+        <v>0.79999999999999905</v>
       </c>
       <c r="J4" s="2">
-        <v>0.87492063492063399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+        <v>0.80824742268041205</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="17">
+        <v>1</v>
+      </c>
+      <c r="P4" s="17">
+        <v>0.33</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>1</v>
+      </c>
+      <c r="R4" s="17">
+        <v>0</v>
+      </c>
+      <c r="S4" s="17">
+        <v>0.67</v>
+      </c>
+      <c r="T4" s="17">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="18">
         <v>5000</v>
       </c>
-      <c r="B5" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.83571428599999997</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.66666666699999999</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.74167987300000005</v>
+      <c r="B5" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.84705882352941098</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H5" s="2">
-        <v>0.85333333333333306</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I5" s="2">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.61455525606468997</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>1</v>
+      </c>
+      <c r="R5" s="17">
+        <v>0</v>
+      </c>
+      <c r="S5" s="17">
         <v>0.8</v>
       </c>
-      <c r="J5" s="2">
-        <v>0.825806451612903</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="T5" s="17">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5000</v>
       </c>
       <c r="B6" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="C6" s="2">
-        <v>0.92</v>
+        <v>0.83571428571428497</v>
       </c>
       <c r="D6" s="2">
-        <v>0.86666666699999995</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="E6" s="2">
-        <v>0.89253731300000005</v>
+        <v>0.74167987321711504</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="2">
-        <v>0.85333333333333306</v>
+        <v>0.869999999999999</v>
       </c>
       <c r="I6" s="2">
-        <v>0.8</v>
+        <v>0.79999999999999905</v>
       </c>
       <c r="J6" s="2">
-        <v>0.825806451612903</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+        <v>0.83353293413173601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="16" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -795,43 +947,43 @@
       <c r="H9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+    <row r="10" spans="1:20" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
       <c r="G10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="9">
         <v>0.869999999999999</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="9">
         <v>0.79999999999999905</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="9">
         <v>0.83353293413173601</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="2">
@@ -859,11 +1011,11 @@
         <v>0.488135593220338</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2">
@@ -891,11 +1043,11 @@
         <v>0.780141843971631</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
         <v>50</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="2">
@@ -913,21 +1065,21 @@
       <c r="H13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="9">
         <v>0.78333333333333299</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="9">
         <v>0.8</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="9">
         <v>0.79157894736842105</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
         <v>50</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2">
@@ -955,7 +1107,7 @@
         <v>0.46997635933806098</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G15" s="1" t="s">
         <v>8</v>
       </c>
@@ -972,8 +1124,8 @@
         <v>0.658227848101265</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -982,30 +1134,30 @@
       <c r="H16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="9">
         <v>0.81333333333333302</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="9">
         <v>0.73333333333333295</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="9">
         <v>0.77126436781609198</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:13" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -1024,12 +1176,12 @@
         <v>0.44025157232704398</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
       <c r="G18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1046,190 +1198,289 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
         <v>50</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="7">
         <v>0.81666666666666599</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="7">
         <v>0.79999999999999905</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="7">
         <v>0.80824742268041205</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
         <v>50</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="7">
         <v>0.85</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="7">
         <v>0.73333333333333295</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="7">
         <v>0.78736842105263105</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="7">
         <v>0.83333333333333304</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="7">
         <v>0.79999999999999905</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="7">
         <v>0.81632653061224403</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.44666666666666599</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.48616780045351399</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="11">
-        <v>0.44666666666666599</v>
-      </c>
-      <c r="D22" s="11">
-        <v>0.53333333333333299</v>
-      </c>
-      <c r="E22" s="11">
-        <v>0.48616780045351399</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="H22" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I22" s="2">
         <v>0.66666666666666596</v>
       </c>
       <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M22" s="17">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="M23" s="17">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2">
         <v>0.57142857142857095</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G23" s="1" t="s">
+      <c r="M24" s="17">
+        <v>0.81599999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H31" s="2">
         <v>0.5</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I31" s="2">
         <v>0.33333333333333298</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J31" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G24" s="1" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="2">
-        <v>1</v>
-      </c>
-      <c r="I24" s="2">
-        <v>1</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G25" s="1" t="s">
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="2">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2">
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2">
         <v>0.66666666666666596</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J33" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G26" s="1" t="s">
+    <row r="34" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H34" s="2">
         <v>0.5</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I34" s="2">
         <v>0.66666666666666596</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J34" s="2">
         <v>0.57142857142857095</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G27" s="1" t="s">
+    <row r="35" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H35" s="2">
         <v>0.7</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I35" s="2">
         <v>0.66700000000000004</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J35" s="2">
         <v>0.68300000000000005</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>